--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2380460.916808878</v>
+        <v>-2384600.623222835</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14854921.43490634</v>
+        <v>14851971.53795424</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.577410113600206</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>167.9415677418375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>110.5657916406518</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104614972</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>85.17955375501148</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>12.61410814568969</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>147.9105675630321</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>50.13051312851537</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104614972</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>18.87888333504851</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15.04686768477739</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>90.79904052475676</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>32.9937807002341</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1184,22 +1184,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.1445242432434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>3.433148018877223</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>186.7779339591668</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>76.72622031552589</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>100.6675882927509</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,7 +1528,7 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>32.47568017090035</v>
       </c>
       <c r="G13" t="n">
-        <v>31.68147343306415</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>6.897481179122647</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>242.6161130221234</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,13 +1765,13 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>31.68147343306505</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>72.6781827631432</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277503</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277491</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697363</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101.570563891392</v>
+        <v>991.298282388821</v>
       </c>
       <c r="C2" t="n">
-        <v>1101.570563891392</v>
+        <v>991.298282388821</v>
       </c>
       <c r="D2" t="n">
-        <v>1101.570563891392</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774146</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>188.9627151354665</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475495</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737747</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.27650096432</v>
+        <v>1870.655869043498</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523736</v>
+        <v>1647.155266602914</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958335</v>
+        <v>1391.402537037513</v>
       </c>
       <c r="V2" t="n">
-        <v>1491.023168958335</v>
+        <v>1391.402537037513</v>
       </c>
       <c r="W2" t="n">
-        <v>1491.023168958335</v>
+        <v>1391.402537037513</v>
       </c>
       <c r="X2" t="n">
-        <v>1101.570563891392</v>
+        <v>1391.402537037513</v>
       </c>
       <c r="Y2" t="n">
-        <v>1101.570563891392</v>
+        <v>994.9118279581141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021424</v>
+        <v>778.7327876102531</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622346</v>
+        <v>628.0785571703453</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083715</v>
+        <v>497.9895897918257</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946027</v>
+        <v>361.5430989027134</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777345</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475495</v>
+        <v>129.8006631557376</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569814</v>
+        <v>158.7695259828367</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>642.3356118811499</v>
       </c>
       <c r="M3" t="n">
-        <v>1252.641318430369</v>
+        <v>1155.938290490839</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430369</v>
+        <v>1155.938290490839</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.16160102135</v>
+        <v>1669.540969100528</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1299.150416625695</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675965</v>
+        <v>1109.843338975707</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431038</v>
+        <v>930.5291220512145</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.87392956865301</v>
+        <v>520.8689647928843</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87392956865301</v>
+        <v>520.8689647928843</v>
       </c>
       <c r="D4" t="n">
-        <v>73.87392956865301</v>
+        <v>365.235851695399</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865301</v>
+        <v>365.235851695399</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865301</v>
+        <v>365.235851695399</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865301</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>623.1836768166511</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="V4" t="n">
-        <v>357.2043316374754</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="W4" t="n">
-        <v>73.87392956865301</v>
+        <v>520.8689647928843</v>
       </c>
       <c r="X4" t="n">
-        <v>73.87392956865301</v>
+        <v>520.8689647928843</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.87392956865301</v>
+        <v>520.8689647928843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.3333414203428</v>
+        <v>1020.96505443839</v>
       </c>
       <c r="C5" t="n">
-        <v>913.3333414203428</v>
+        <v>1020.96505443839</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8922126370105</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>454.6660022683354</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475495</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="N5" t="n">
-        <v>1961.8683757883</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737747</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297164</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.529637731763</v>
+        <v>1781.416694537046</v>
       </c>
       <c r="V5" t="n">
-        <v>1353.422828435281</v>
+        <v>1781.416694537046</v>
       </c>
       <c r="W5" t="n">
-        <v>1302.785946487286</v>
+        <v>1410.417659505333</v>
       </c>
       <c r="X5" t="n">
-        <v>913.3333414203428</v>
+        <v>1020.96505443839</v>
       </c>
       <c r="Y5" t="n">
-        <v>913.3333414203428</v>
+        <v>1020.96505443839</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021424</v>
+        <v>716.4374237795013</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622346</v>
+        <v>565.7831933395935</v>
       </c>
       <c r="D6" t="n">
-        <v>375.070220083715</v>
+        <v>435.6942259610738</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946027</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777345</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475495</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475495</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875478</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917585</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675965</v>
+        <v>887.3033373467742</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431038</v>
+        <v>868.2337582204626</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1653.625126147882</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="C7" t="n">
-        <v>1653.625126147882</v>
+        <v>255.3344270780409</v>
       </c>
       <c r="D7" t="n">
-        <v>1653.625126147882</v>
+        <v>240.135570830791</v>
       </c>
       <c r="E7" t="n">
-        <v>1653.625126147882</v>
+        <v>240.135570830791</v>
       </c>
       <c r="F7" t="n">
-        <v>1653.625126147882</v>
+        <v>240.135570830791</v>
       </c>
       <c r="G7" t="n">
-        <v>1561.908923597623</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="H7" t="n">
-        <v>1406.430372559117</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="I7" t="n">
-        <v>1273.335947196195</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J7" t="n">
-        <v>1273.335947196195</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>1355.170988306137</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>1519.298628179936</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>1705.590206518201</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>1888.77984054941</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>2051.484607591118</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>2171.360773367696</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>2174.782969737747</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>2174.782969737747</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>2174.782969737747</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>1939.063917905981</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>1653.625126147882</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>1653.625126147882</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>1653.625126147882</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>1653.625126147882</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="Y7" t="n">
-        <v>1653.625126147882</v>
+        <v>425.5395450120517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>531.7095233437991</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="C8" t="n">
-        <v>531.7095233437991</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4805,10 +4805,10 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
         <v>864.7645682749193</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="Y8" t="n">
-        <v>531.7095233437991</v>
+        <v>2161.142036303753</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.3212008849971</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C10" t="n">
-        <v>663.3212008849971</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D10" t="n">
-        <v>507.6880877875118</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E10" t="n">
-        <v>352.1292756467143</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F10" t="n">
-        <v>352.1292756467143</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G10" t="n">
-        <v>183.8752217461599</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
-        <v>183.8752217461599</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>50.78079638323777</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>663.3212008849971</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W10" t="n">
-        <v>663.3212008849971</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X10" t="n">
-        <v>663.3212008849971</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.3212008849971</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1381.437402331605</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C11" t="n">
-        <v>1381.437402331605</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.792548694466</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>737.0052989572048</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>391.9071356333764</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="V11" t="n">
-        <v>2651.689396636281</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="W11" t="n">
-        <v>2352.486636750762</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="X11" t="n">
-        <v>2034.830306830013</v>
+        <v>2686.615622666087</v>
       </c>
       <c r="Y11" t="n">
-        <v>1710.135872896808</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.4187662370702</v>
+        <v>254.6298380530044</v>
       </c>
       <c r="C13" t="n">
-        <v>155.4187662370702</v>
+        <v>156.2209952651875</v>
       </c>
       <c r="D13" t="n">
-        <v>155.4187662370702</v>
+        <v>156.2209952651875</v>
       </c>
       <c r="E13" t="n">
-        <v>155.4187662370702</v>
+        <v>156.2209952651875</v>
       </c>
       <c r="F13" t="n">
-        <v>155.4187662370702</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
@@ -5206,43 +5206,43 @@
         <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457734</v>
+        <v>936.0428256245451</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127917</v>
+        <v>741.8597555915633</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901632</v>
+        <v>530.3256286689348</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193401</v>
+        <v>368.0415815981117</v>
       </c>
       <c r="Y13" t="n">
-        <v>268.8305097821774</v>
+        <v>368.0415815981117</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1966.681876406337</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816803</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>3011.239105293021</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W14" t="n">
-        <v>3004.271952586837</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X14" t="n">
-        <v>2686.615622666087</v>
+        <v>2291.376310339542</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>1966.681876406337</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.290507486536</v>
+        <v>155.418766237071</v>
       </c>
       <c r="C16" t="n">
-        <v>145.8816646987191</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="D16" t="n">
-        <v>145.8816646987191</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118225</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1365.712833143252</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1201.79005645768</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>988.1475398457744</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>793.9644698127926</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901632</v>
+        <v>582.4303428901642</v>
       </c>
       <c r="X16" t="n">
-        <v>509.0180370688063</v>
+        <v>420.1462958193412</v>
       </c>
       <c r="Y16" t="n">
-        <v>357.7022510316434</v>
+        <v>268.8305097821783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,19 +5534,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
@@ -5555,7 +5555,7 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443166</v>
@@ -5592,13 +5592,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,28 +5774,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5838,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240293</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,19 +6008,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,10 +6029,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6236,10 +6236,10 @@
         <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6260,13 +6260,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6382,7 +6382,7 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192011</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,19 +6464,19 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6488,25 +6488,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039955969</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230587</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741587</v>
+        <v>1176.159676832146</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786168</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.72233542363</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315959</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174551</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407616</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>104.2470938898633</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>587.8131797881765</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1215.584829414858</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1871.362800625417</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2387.883083216398</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>225.416092717101</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076205</v>
+        <v>501.1958531658835</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458845</v>
+        <v>687.4874315041475</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>870.6770655353566</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1145.033953152047</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928626</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6944,28 +6944,28 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
@@ -6974,10 +6974,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885595</v>
       </c>
       <c r="C37" t="n">
         <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E37" t="n">
         <v>149.5651460634913</v>
@@ -7084,37 +7084,37 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072676</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,19 +7123,19 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918807</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161902</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194228</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330089</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984005</v>
       </c>
       <c r="Y37" t="n">
         <v>289.4632611974523</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229987</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222417</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>442.71782091847</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>214.0018366896153</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376797</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463310182</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>502.3269473776696</v>
+        <v>611.1777065035432</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431202</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>214.0018366896153</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>364.6290838376797</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,16 +8301,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>265.594531665659</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431202</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>460.0844827140018</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>331.0195299270391</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8535,19 +8535,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>151.5659933015362</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N15" t="n">
-        <v>459.8553156798577</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9656,7 +9656,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>124.6469814435369</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,13 +10899,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>176.3345925796061</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10917,7 +10917,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11136,25 +11136,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>261.226595246619</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>49.51969572869461</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>52.19868287352444</v>
       </c>
       <c r="G13" t="n">
-        <v>63.81172753375282</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -23552,13 +23552,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>289.3132511075409</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>71.86365359941826</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65.74328092687362</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>87.98302383697158</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.034373084024992e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1298640.536668802</v>
+        <v>1297136.667634401</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1298640.536668802</v>
+        <v>1297136.667634401</v>
       </c>
     </row>
     <row r="4">
@@ -26317,37 +26317,37 @@
         <v>18033.21780933568</v>
       </c>
       <c r="D2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933567</v>
       </c>
       <c r="E2" t="n">
-        <v>15935.90234244006</v>
+        <v>15935.90234244007</v>
       </c>
       <c r="F2" t="n">
-        <v>15935.90234244006</v>
+        <v>15935.90234244003</v>
       </c>
       <c r="G2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933566</v>
       </c>
       <c r="H2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933567</v>
       </c>
       <c r="I2" t="n">
         <v>18033.21780933567</v>
       </c>
       <c r="J2" t="n">
+        <v>18033.21780933565</v>
+      </c>
+      <c r="K2" t="n">
         <v>18033.21780933564</v>
       </c>
-      <c r="K2" t="n">
-        <v>18033.21780933565</v>
-      </c>
       <c r="L2" t="n">
-        <v>18033.21780933566</v>
+        <v>18033.2178093357</v>
       </c>
       <c r="M2" t="n">
         <v>18033.21780933568</v>
       </c>
       <c r="N2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="O2" t="n">
         <v>18033.21780933568</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401326</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668185</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399297</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539651</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.6940427713</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907734</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907734</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="F4" t="n">
-        <v>138605.9604845213</v>
+        <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
         <v>186364.8769761035</v>
@@ -26445,13 +26445,13 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
         <v>186364.8769761035</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,22 +26485,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-452410.6426714851</v>
+        <v>-447758.4230503103</v>
       </c>
       <c r="C6" t="n">
-        <v>-270205.6943796293</v>
+        <v>-273899.766016255</v>
       </c>
       <c r="D6" t="n">
-        <v>-277950.2750832498</v>
+        <v>-285686.5643066411</v>
       </c>
       <c r="E6" t="n">
-        <v>-287978.6393159663</v>
+        <v>-288188.370862656</v>
       </c>
       <c r="F6" t="n">
-        <v>-175856.0778419218</v>
+        <v>-176065.8093886115</v>
       </c>
       <c r="G6" t="n">
-        <v>-273926.7540189695</v>
+        <v>-273926.7540189693</v>
       </c>
       <c r="H6" t="n">
-        <v>-226501.4284822875</v>
+        <v>-226501.4284822874</v>
       </c>
       <c r="I6" t="n">
         <v>-226501.4284822875</v>
       </c>
       <c r="J6" t="n">
-        <v>-439543.346079573</v>
+        <v>-433027.0609250002</v>
       </c>
       <c r="K6" t="n">
-        <v>-232741.1968850705</v>
+        <v>-232741.1968850706</v>
       </c>
       <c r="L6" t="n">
-        <v>-287923.7858196917</v>
+        <v>-291972.6230301636</v>
       </c>
       <c r="M6" t="n">
-        <v>-268702.2579419106</v>
+        <v>-269753.9529530989</v>
       </c>
       <c r="N6" t="n">
         <v>-226501.4284822875</v>
       </c>
       <c r="O6" t="n">
-        <v>-254269.1225250587</v>
+        <v>-254269.1225250588</v>
       </c>
       <c r="P6" t="n">
         <v>-226501.4284822875</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,25 +26802,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="H4" t="n">
-        <v>776.4890963014442</v>
-      </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085231</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924563</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971655</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407322</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085231</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>392.9123881406827</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>230.6161218927834</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12.62169641504768</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270448</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>197.4048500855066</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>267.8829899024445</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27619,22 +27619,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>233.6761499324668</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>317.15853155288</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270448</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>158.6421914201993</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>139.029914281733</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>75.77247283679215</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>363.4960175540488</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.3812777453615</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.64133945328185</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>44.96158503567989</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,16 +28752,16 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>35.71049010668816</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>35.71049010668912</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155857</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,40 +29229,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634529923</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,34 +29272,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29308,40 +29308,40 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566378</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683160349</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031718</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861253958</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>128.2979821082779</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,13 +30639,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668871</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30888,10 +30888,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>64.276785091888</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135833</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299768475</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>409.9398253283577</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>64.276785091888</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>215.0652464135833</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,16 +35021,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>173.2074096163471</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>373.0011178946871</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>181.2944783293118</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35255,19 +35255,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>66.19388044736954</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N15" t="n">
-        <v>374.483202825691</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,16 +36048,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716088</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>39.1672541168416</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644682406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,10 +36604,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039233</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215727</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101047</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917528</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409207</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>464.4844572792975</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>230.2077838426626</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>35.0500461102037</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>159.4555122371272</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345596</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37239,13 +37239,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510934</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>210.9596397950879</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,19 +37473,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>86.27424572268784</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37637,7 +37637,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>294.0834769302979</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.63600263452964</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38184,10 +38184,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
